--- a/CumulativeTestsByTypeByCounty/2021-04-22.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-04-22.xlsx
@@ -1292,7 +1292,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>245195</v>
+        <v>245197</v>
       </c>
       <c r="C15" s="4">
         <v>13411</v>
@@ -1301,7 +1301,7 @@
         <v>20722</v>
       </c>
       <c r="E15" s="4">
-        <v>279328</v>
+        <v>279330</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>2066604</v>
+        <v>2066606</v>
       </c>
       <c r="C16" s="4">
         <v>54755</v>
@@ -1318,7 +1318,7 @@
         <v>215348</v>
       </c>
       <c r="E16" s="4">
-        <v>2336707</v>
+        <v>2336709</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>248167</v>
+        <v>248172</v>
       </c>
       <c r="C22" s="4">
         <v>5876</v>
       </c>
       <c r="D22" s="4">
-        <v>19733</v>
+        <v>19734</v>
       </c>
       <c r="E22" s="4">
-        <v>273776</v>
+        <v>273782</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1785,7 +1785,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>904464</v>
+        <v>904467</v>
       </c>
       <c r="C44" s="4">
         <v>81259</v>
@@ -1794,7 +1794,7 @@
         <v>110575</v>
       </c>
       <c r="E44" s="4">
-        <v>1096298</v>
+        <v>1096301</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -2023,7 +2023,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2291724</v>
+        <v>2291733</v>
       </c>
       <c r="C58" s="4">
         <v>132833</v>
@@ -2032,7 +2032,7 @@
         <v>230206</v>
       </c>
       <c r="E58" s="4">
-        <v>2654763</v>
+        <v>2654772</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2108,7 +2108,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>565172</v>
+        <v>565174</v>
       </c>
       <c r="C63" s="4">
         <v>59704</v>
@@ -2117,7 +2117,7 @@
         <v>96961</v>
       </c>
       <c r="E63" s="4">
-        <v>721837</v>
+        <v>721839</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2482,7 +2482,7 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>347654</v>
+        <v>347657</v>
       </c>
       <c r="C85" s="4">
         <v>10422</v>
@@ -2491,7 +2491,7 @@
         <v>31445</v>
       </c>
       <c r="E85" s="4">
-        <v>389521</v>
+        <v>389524</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2771,7 +2771,7 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>4022303</v>
+        <v>4022320</v>
       </c>
       <c r="C102" s="4">
         <v>141608</v>
@@ -2780,7 +2780,7 @@
         <v>381095</v>
       </c>
       <c r="E102" s="4">
-        <v>4545006</v>
+        <v>4545023</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2839,7 +2839,7 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>239984</v>
+        <v>239986</v>
       </c>
       <c r="C106" s="4">
         <v>10648</v>
@@ -2848,7 +2848,7 @@
         <v>19585</v>
       </c>
       <c r="E106" s="4">
-        <v>270217</v>
+        <v>270219</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -3111,7 +3111,7 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>14178</v>
+        <v>14179</v>
       </c>
       <c r="C122" s="4">
         <v>2588</v>
@@ -3120,7 +3120,7 @@
         <v>4299</v>
       </c>
       <c r="E122" s="4">
-        <v>21065</v>
+        <v>21066</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3740,7 +3740,7 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>32459</v>
+        <v>32463</v>
       </c>
       <c r="C159" s="4">
         <v>764</v>
@@ -3749,7 +3749,7 @@
         <v>2727</v>
       </c>
       <c r="E159" s="4">
-        <v>35950</v>
+        <v>35954</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -4794,7 +4794,7 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1602937</v>
+        <v>1602943</v>
       </c>
       <c r="C221" s="4">
         <v>89895</v>
@@ -4803,7 +4803,7 @@
         <v>206033</v>
       </c>
       <c r="E221" s="4">
-        <v>1898865</v>
+        <v>1898871</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4896,7 +4896,7 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>72599</v>
+        <v>72600</v>
       </c>
       <c r="C227" s="4">
         <v>1616</v>
@@ -4905,7 +4905,7 @@
         <v>43236</v>
       </c>
       <c r="E227" s="4">
-        <v>117451</v>
+        <v>117452</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,7 +4913,7 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1005742</v>
+        <v>1005743</v>
       </c>
       <c r="C228" s="4">
         <v>41263</v>
@@ -4922,7 +4922,7 @@
         <v>155362</v>
       </c>
       <c r="E228" s="4">
-        <v>1202367</v>
+        <v>1202368</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>22537890</v>
+        <v>22537948</v>
       </c>
       <c r="C257" s="4">
         <v>1121025</v>
       </c>
       <c r="D257" s="4">
-        <v>3698800</v>
+        <v>3698801</v>
       </c>
       <c r="E257" s="4">
-        <v>27357715</v>
+        <v>27357774</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
